--- a/data/SymbolicResult.xlsx
+++ b/data/SymbolicResult.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">0 0 0 0 </t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>f15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (P*p2 - P - T*p4)/(p2 - p4 - 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,7 +521,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -545,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/data/SymbolicResult.xlsx
+++ b/data/SymbolicResult.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t xml:space="preserve">0 0 0 0 </t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t xml:space="preserve"> (P*p2 - P - T*p4)/(p2 - p4 - 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as f15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,12 +223,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,9 +249,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,19 +537,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="139.125" customWidth="1"/>
+    <col min="3" max="3" width="136.375" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -540,8 +560,11 @@
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -552,7 +575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -563,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -574,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -585,18 +608,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -607,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -618,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -629,18 +655,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -651,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -662,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -673,37 +702,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
